--- a/youxi.xlsx
+++ b/youxi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>我ewe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,14 @@
   </si>
   <si>
     <t>五ewe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,6 +400,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/youxi.xlsx
+++ b/youxi.xlsx
@@ -382,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,6 +405,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1">
+        <v>12312</v>
       </c>
     </row>
   </sheetData>

--- a/youxi.xlsx
+++ b/youxi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>我ewe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,14 @@
   </si>
   <si>
     <t>分钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -410,6 +418,14 @@
         <v>12312</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/youxi.xlsx
+++ b/youxi.xlsx
@@ -20,10 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我ew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五ewe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,6 +37,10 @@
   </si>
   <si>
     <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -403,16 +403,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1">
         <v>12312</v>
@@ -420,10 +420,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
